--- a/Codebook for Error Check.xlsx
+++ b/Codebook for Error Check.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DHCPNDH1_DataDictionary_2019-08" sheetId="1" r:id="rId1"/>
@@ -9963,45 +9963,7 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -10535,13 +10497,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -10557,6 +10512,51 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -10600,7 +10600,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:R1408" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:R1407">
   <autoFilter ref="A1:R1407">
     <filterColumn colId="0">
       <filters>
@@ -11090,7 +11090,7 @@
     <tableColumn id="3" name="Section Header"/>
     <tableColumn id="4" name="Field Type"/>
     <tableColumn id="5" name="Field Label"/>
-    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels" totalsRowDxfId="0"/>
     <tableColumn id="7" name="Field Note"/>
     <tableColumn id="8" name="Text Validation Type OR Show Slider Number"/>
     <tableColumn id="9" name="Text Validation Min"/>
@@ -11109,27 +11109,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R197" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R197" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:R197"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Variable / Field Name" dataDxfId="19"/>
-    <tableColumn id="2" name="Form Name" dataDxfId="18"/>
-    <tableColumn id="3" name="Section Header" dataDxfId="17"/>
-    <tableColumn id="4" name="Field Type" dataDxfId="16"/>
-    <tableColumn id="5" name="Field Label" dataDxfId="15"/>
-    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels" dataDxfId="14"/>
-    <tableColumn id="7" name="Field Note" dataDxfId="13"/>
-    <tableColumn id="8" name="Text Validation Type OR Show Slider Number" dataDxfId="12"/>
-    <tableColumn id="9" name="Text Validation Min" dataDxfId="11"/>
-    <tableColumn id="10" name="Text Validation Max" dataDxfId="10"/>
-    <tableColumn id="11" name="Identifier?" dataDxfId="9"/>
-    <tableColumn id="12" name="Branching Logic (Show field only if...)" dataDxfId="8"/>
-    <tableColumn id="13" name="Required Field?" dataDxfId="7"/>
-    <tableColumn id="14" name="Custom Alignment" dataDxfId="6"/>
-    <tableColumn id="15" name="Question Number (surveys only)" dataDxfId="5"/>
-    <tableColumn id="16" name="Matrix Group Name" dataDxfId="4"/>
-    <tableColumn id="17" name="Matrix Ranking?" dataDxfId="3"/>
-    <tableColumn id="18" name="Field Annotation" dataDxfId="2"/>
+    <tableColumn id="1" name="Variable / Field Name" dataDxfId="18"/>
+    <tableColumn id="2" name="Form Name" dataDxfId="17"/>
+    <tableColumn id="3" name="Section Header" dataDxfId="16"/>
+    <tableColumn id="4" name="Field Type" dataDxfId="15"/>
+    <tableColumn id="5" name="Field Label" dataDxfId="14"/>
+    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels" dataDxfId="13"/>
+    <tableColumn id="7" name="Field Note" dataDxfId="12"/>
+    <tableColumn id="8" name="Text Validation Type OR Show Slider Number" dataDxfId="11"/>
+    <tableColumn id="9" name="Text Validation Min" dataDxfId="10"/>
+    <tableColumn id="10" name="Text Validation Max" dataDxfId="9"/>
+    <tableColumn id="11" name="Identifier?" dataDxfId="8"/>
+    <tableColumn id="12" name="Branching Logic (Show field only if...)" dataDxfId="7"/>
+    <tableColumn id="13" name="Required Field?" dataDxfId="6"/>
+    <tableColumn id="14" name="Custom Alignment" dataDxfId="5"/>
+    <tableColumn id="15" name="Question Number (surveys only)" dataDxfId="4"/>
+    <tableColumn id="16" name="Matrix Group Name" dataDxfId="3"/>
+    <tableColumn id="17" name="Matrix Ranking?" dataDxfId="2"/>
+    <tableColumn id="18" name="Field Annotation" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -40125,13 +40125,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1408"/>
+  <dimension ref="A1:R1407"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="P1323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:R1407"/>
+      <selection pane="bottomRight" activeCell="B1390" sqref="B1390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68931,7 +68931,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="1393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
         <v>3059</v>
       </c>
@@ -68951,7 +68951,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="1394" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
         <v>3062</v>
       </c>
@@ -68971,7 +68971,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="1395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
         <v>3065</v>
       </c>
@@ -68988,7 +68988,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="1396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
         <v>3067</v>
       </c>
@@ -69005,7 +69005,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="1397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
         <v>3070</v>
       </c>
@@ -69022,7 +69022,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="1398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
         <v>3073</v>
       </c>
@@ -69036,7 +69036,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="1399" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
         <v>3075</v>
       </c>
@@ -69053,7 +69053,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="1400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
         <v>3079</v>
       </c>
@@ -69073,7 +69073,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="1401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
         <v>3082</v>
       </c>
@@ -69090,7 +69090,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="1402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>3084</v>
       </c>
@@ -69105,7 +69105,7 @@
       </c>
       <c r="F1402"/>
     </row>
-    <row r="1403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>3087</v>
       </c>
@@ -69122,7 +69122,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>3089</v>
       </c>
@@ -69136,7 +69136,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="1405" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>3091</v>
       </c>
@@ -69153,7 +69153,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="1406" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
         <v>3095</v>
       </c>
@@ -69173,7 +69173,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="1407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>3099</v>
       </c>
@@ -69185,16 +69185,6 @@
       </c>
       <c r="E1407" t="s">
         <v>3100</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1408">
-        <f>SUBTOTAL(103,Table24[Variable / Field Name])</f>
-        <v>196</v>
-      </c>
-      <c r="R1408">
-        <f>SUBTOTAL(103,Table24[Field Annotation])</f>
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -69209,8 +69199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Codebook for Error Check.xlsx
+++ b/Codebook for Error Check.xlsx
@@ -10702,13 +10702,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:T1407">
-  <autoFilter ref="A1:T1407">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T1407"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Variable / Field Name"/>
     <tableColumn id="2" name="Form Name"/>
@@ -39756,10 +39750,10 @@
   <dimension ref="A1:T1407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K581" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L602" sqref="L602"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39847,7 +39841,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -39867,7 +39861,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -39893,7 +39887,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -39967,7 +39961,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -40224,7 +40218,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -40259,7 +40253,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -40336,7 +40330,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -40365,7 +40359,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -40400,7 +40394,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -40549,7 +40543,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -40584,7 +40578,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -40610,7 +40604,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -40633,7 +40627,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>120</v>
       </c>
@@ -40679,7 +40673,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -40708,7 +40702,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -40728,7 +40722,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -40760,7 +40754,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -40783,7 +40777,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>137</v>
       </c>
@@ -40809,7 +40803,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -40838,7 +40832,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>141</v>
       </c>
@@ -40906,7 +40900,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -40981,7 +40975,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -41039,7 +41033,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -41097,7 +41091,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -41120,7 +41114,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>171</v>
       </c>
@@ -41166,7 +41160,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -41198,7 +41192,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -41230,7 +41224,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -41253,7 +41247,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -41324,7 +41318,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -41425,7 +41419,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>201</v>
       </c>
@@ -41448,7 +41442,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>203</v>
       </c>
@@ -41681,7 +41675,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -41713,7 +41707,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>224</v>
       </c>
@@ -41745,7 +41739,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>227</v>
       </c>
@@ -41774,7 +41768,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -41797,7 +41791,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -41874,7 +41868,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -41897,7 +41891,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -41929,7 +41923,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -41962,7 +41956,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>246</v>
       </c>
@@ -41982,7 +41976,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -42008,7 +42002,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>252</v>
       </c>
@@ -42082,7 +42076,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>255</v>
       </c>
@@ -42131,7 +42125,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -42160,7 +42154,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>265</v>
       </c>
@@ -42183,7 +42177,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>268</v>
       </c>
@@ -42232,7 +42226,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>275</v>
       </c>
@@ -42281,7 +42275,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>281</v>
       </c>
@@ -42304,7 +42298,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -42327,7 +42321,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -42350,7 +42344,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>288</v>
       </c>
@@ -42373,7 +42367,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -42444,7 +42438,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>295</v>
       </c>
@@ -42496,7 +42490,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -42519,7 +42513,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>305</v>
       </c>
@@ -42542,7 +42536,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>308</v>
       </c>
@@ -42669,7 +42663,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -42692,7 +42686,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>324</v>
       </c>
@@ -42763,7 +42757,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>329</v>
       </c>
@@ -42786,7 +42780,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -42806,7 +42800,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -42835,7 +42829,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>336</v>
       </c>
@@ -42887,7 +42881,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>343</v>
       </c>
@@ -42910,7 +42904,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>346</v>
       </c>
@@ -42936,7 +42930,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>349</v>
       </c>
@@ -42959,7 +42953,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>352</v>
       </c>
@@ -42985,7 +42979,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>354</v>
       </c>
@@ -43011,7 +43005,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>356</v>
       </c>
@@ -43037,7 +43031,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>358</v>
       </c>
@@ -43060,7 +43054,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>361</v>
       </c>
@@ -43083,7 +43077,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>364</v>
       </c>
@@ -43106,7 +43100,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>367</v>
       </c>
@@ -43129,7 +43123,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>369</v>
       </c>
@@ -43155,7 +43149,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>373</v>
       </c>
@@ -43184,7 +43178,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>375</v>
       </c>
@@ -43210,7 +43204,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>377</v>
       </c>
@@ -43308,7 +43302,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>389</v>
       </c>
@@ -43328,7 +43322,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>391</v>
       </c>
@@ -43492,7 +43486,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>407</v>
       </c>
@@ -43522,7 +43516,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>409</v>
       </c>
@@ -43549,7 +43543,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>411</v>
       </c>
@@ -43573,7 +43567,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>413</v>
       </c>
@@ -43597,7 +43591,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>415</v>
       </c>
@@ -43645,7 +43639,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>420</v>
       </c>
@@ -43669,7 +43663,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>422</v>
       </c>
@@ -43693,7 +43687,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>424</v>
       </c>
@@ -43719,7 +43713,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>428</v>
       </c>
@@ -43745,7 +43739,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>431</v>
       </c>
@@ -43792,7 +43786,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>437</v>
       </c>
@@ -43818,7 +43812,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>440</v>
       </c>
@@ -43844,7 +43838,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>443</v>
       </c>
@@ -43870,7 +43864,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>446</v>
       </c>
@@ -43896,7 +43890,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>449</v>
       </c>
@@ -43922,7 +43916,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>451</v>
       </c>
@@ -43951,7 +43945,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>455</v>
       </c>
@@ -43978,7 +43972,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>457</v>
       </c>
@@ -44001,7 +43995,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>460</v>
       </c>
@@ -44027,7 +44021,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>463</v>
       </c>
@@ -44048,7 +44042,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>465</v>
       </c>
@@ -44078,7 +44072,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>470</v>
       </c>
@@ -44225,7 +44219,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>484</v>
       </c>
@@ -44252,7 +44246,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>486</v>
       </c>
@@ -44399,7 +44393,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>498</v>
       </c>
@@ -44426,7 +44420,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>500</v>
       </c>
@@ -44573,7 +44567,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>512</v>
       </c>
@@ -44600,7 +44594,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>514</v>
       </c>
@@ -44747,7 +44741,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>526</v>
       </c>
@@ -44774,7 +44768,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>528</v>
       </c>
@@ -44921,7 +44915,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>540</v>
       </c>
@@ -44948,7 +44942,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>542</v>
       </c>
@@ -45095,7 +45089,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>554</v>
       </c>
@@ -45122,7 +45116,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>556</v>
       </c>
@@ -45269,7 +45263,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>568</v>
       </c>
@@ -45296,7 +45290,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>570</v>
       </c>
@@ -45443,7 +45437,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>582</v>
       </c>
@@ -45470,7 +45464,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>584</v>
       </c>
@@ -45617,7 +45611,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>596</v>
       </c>
@@ -45644,7 +45638,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>598</v>
       </c>
@@ -45791,7 +45785,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>610</v>
       </c>
@@ -45818,7 +45812,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>612</v>
       </c>
@@ -45965,7 +45959,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>624</v>
       </c>
@@ -45992,7 +45986,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>626</v>
       </c>
@@ -46139,7 +46133,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>638</v>
       </c>
@@ -46166,7 +46160,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>640</v>
       </c>
@@ -46313,7 +46307,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>652</v>
       </c>
@@ -46340,7 +46334,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>654</v>
       </c>
@@ -46487,7 +46481,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>666</v>
       </c>
@@ -46514,7 +46508,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>668</v>
       </c>
@@ -46661,7 +46655,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>680</v>
       </c>
@@ -46688,7 +46682,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>682</v>
       </c>
@@ -46835,7 +46829,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>694</v>
       </c>
@@ -46862,7 +46856,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>696</v>
       </c>
@@ -47009,7 +47003,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>708</v>
       </c>
@@ -47036,7 +47030,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>710</v>
       </c>
@@ -47183,7 +47177,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>722</v>
       </c>
@@ -47210,7 +47204,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>724</v>
       </c>
@@ -47357,7 +47351,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>736</v>
       </c>
@@ -47384,7 +47378,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>738</v>
       </c>
@@ -47531,7 +47525,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>750</v>
       </c>
@@ -47558,7 +47552,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>752</v>
       </c>
@@ -47705,7 +47699,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>764</v>
       </c>
@@ -47732,7 +47726,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>766</v>
       </c>
@@ -47879,7 +47873,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>778</v>
       </c>
@@ -47906,7 +47900,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>780</v>
       </c>
@@ -48053,7 +48047,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>792</v>
       </c>
@@ -48077,7 +48071,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>794</v>
       </c>
@@ -48148,7 +48142,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>803</v>
       </c>
@@ -48169,7 +48163,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>805</v>
       </c>
@@ -48241,7 +48235,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>810</v>
       </c>
@@ -48265,7 +48259,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>812</v>
       </c>
@@ -48286,7 +48280,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>814</v>
       </c>
@@ -48345,7 +48339,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>821</v>
       </c>
@@ -48368,7 +48362,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>824</v>
       </c>
@@ -48391,7 +48385,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>827</v>
       </c>
@@ -48414,7 +48408,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>830</v>
       </c>
@@ -48437,7 +48431,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>833</v>
       </c>
@@ -48460,7 +48454,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>836</v>
       </c>
@@ -48483,7 +48477,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>839</v>
       </c>
@@ -48506,7 +48500,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>842</v>
       </c>
@@ -48529,7 +48523,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>845</v>
       </c>
@@ -48552,7 +48546,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>848</v>
       </c>
@@ -48575,7 +48569,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>851</v>
       </c>
@@ -48742,7 +48736,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>865</v>
       </c>
@@ -48765,7 +48759,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>868</v>
       </c>
@@ -48791,7 +48785,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>871</v>
       </c>
@@ -48821,7 +48815,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>873</v>
       </c>
@@ -48848,7 +48842,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>874</v>
       </c>
@@ -48872,7 +48866,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>875</v>
       </c>
@@ -48898,7 +48892,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>876</v>
       </c>
@@ -48945,7 +48939,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>879</v>
       </c>
@@ -48971,7 +48965,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>880</v>
       </c>
@@ -48997,7 +48991,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>882</v>
       </c>
@@ -49026,7 +49020,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>884</v>
       </c>
@@ -49047,7 +49041,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>886</v>
       </c>
@@ -49074,7 +49068,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>887</v>
       </c>
@@ -49100,7 +49094,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>891</v>
       </c>
@@ -49124,7 +49118,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>893</v>
       </c>
@@ -49147,7 +49141,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>896</v>
       </c>
@@ -49171,7 +49165,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>898</v>
       </c>
@@ -49195,7 +49189,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>900</v>
       </c>
@@ -49219,7 +49213,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>902</v>
       </c>
@@ -49243,7 +49237,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>904</v>
       </c>
@@ -49266,7 +49260,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>907</v>
       </c>
@@ -49289,7 +49283,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>910</v>
       </c>
@@ -49313,7 +49307,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>912</v>
       </c>
@@ -49337,7 +49331,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>914</v>
       </c>
@@ -49361,7 +49355,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>916</v>
       </c>
@@ -49432,7 +49426,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>924</v>
       </c>
@@ -49453,7 +49447,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>926</v>
       </c>
@@ -49477,7 +49471,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>927</v>
       </c>
@@ -49504,7 +49498,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>928</v>
       </c>
@@ -49528,7 +49522,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>930</v>
       </c>
@@ -49552,7 +49546,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>932</v>
       </c>
@@ -49576,7 +49570,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>934</v>
       </c>
@@ -49600,7 +49594,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>936</v>
       </c>
@@ -49624,7 +49618,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>938</v>
       </c>
@@ -49648,7 +49642,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>940</v>
       </c>
@@ -49672,7 +49666,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>942</v>
       </c>
@@ -49696,7 +49690,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>944</v>
       </c>
@@ -49720,7 +49714,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>946</v>
       </c>
@@ -49744,7 +49738,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>948</v>
       </c>
@@ -49771,7 +49765,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>950</v>
       </c>
@@ -49795,7 +49789,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>952</v>
       </c>
@@ -49990,7 +49984,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>964</v>
       </c>
@@ -50011,7 +50005,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>966</v>
       </c>
@@ -50034,7 +50028,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>967</v>
       </c>
@@ -50897,7 +50891,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1032</v>
       </c>
@@ -50926,7 +50920,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="422" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1034</v>
       </c>
@@ -50949,7 +50943,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1037</v>
       </c>
@@ -51040,7 +51034,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1045</v>
       </c>
@@ -51064,7 +51058,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1047</v>
       </c>
@@ -51088,7 +51082,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1049</v>
       </c>
@@ -51112,7 +51106,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1051</v>
       </c>
@@ -51136,7 +51130,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1053</v>
       </c>
@@ -51716,7 +51710,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1094</v>
       </c>
@@ -51740,7 +51734,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1097</v>
       </c>
@@ -52320,7 +52314,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1137</v>
       </c>
@@ -52344,7 +52338,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1138</v>
       </c>
@@ -52924,7 +52918,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1178</v>
       </c>
@@ -53606,7 +53600,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="517" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1224</v>
       </c>
@@ -53627,7 +53621,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="518" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1226</v>
       </c>
@@ -53650,7 +53644,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="519" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1229</v>
       </c>
@@ -53673,7 +53667,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="520" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1231</v>
       </c>
@@ -53699,7 +53693,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="521" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1233</v>
       </c>
@@ -53725,7 +53719,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="522" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1236</v>
       </c>
@@ -53748,7 +53742,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="523" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1239</v>
       </c>
@@ -53771,7 +53765,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="524" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1242</v>
       </c>
@@ -53797,7 +53791,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="525" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1245</v>
       </c>
@@ -53820,7 +53814,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="526" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1248</v>
       </c>
@@ -53843,7 +53837,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="527" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1250</v>
       </c>
@@ -53866,7 +53860,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="528" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1253</v>
       </c>
@@ -53886,7 +53880,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="529" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1255</v>
       </c>
@@ -54516,7 +54510,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="551" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1300</v>
       </c>
@@ -54539,7 +54533,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="552" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1303</v>
       </c>
@@ -54613,7 +54607,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="555" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1309</v>
       </c>
@@ -54636,7 +54630,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="556" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1312</v>
       </c>
@@ -54659,7 +54653,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="557" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1314</v>
       </c>
@@ -54682,7 +54676,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="558" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1316</v>
       </c>
@@ -55252,7 +55246,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="580" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1382</v>
       </c>
@@ -55323,7 +55317,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="583" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1387</v>
       </c>
@@ -55401,7 +55395,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="586" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1394</v>
       </c>
@@ -55425,7 +55419,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="587" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1396</v>
       </c>
@@ -55449,7 +55443,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="588" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1398</v>
       </c>
@@ -55472,7 +55466,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="589" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1400</v>
       </c>
@@ -55548,7 +55542,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="592" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1409</v>
       </c>
@@ -55569,7 +55563,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="593" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1411</v>
       </c>
@@ -55593,7 +55587,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="594" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1413</v>
       </c>
@@ -55617,7 +55611,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="595" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1415</v>
       </c>
@@ -55641,7 +55635,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="596" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1417</v>
       </c>
@@ -55665,7 +55659,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="597" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1419</v>
       </c>
@@ -55689,7 +55683,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="598" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1421</v>
       </c>
@@ -55712,7 +55706,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="599" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1423</v>
       </c>
@@ -55735,7 +55729,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="600" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1426</v>
       </c>
@@ -55758,7 +55752,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="601" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1429</v>
       </c>
@@ -55835,7 +55829,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="604" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1436</v>
       </c>
@@ -55859,7 +55853,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="605" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1438</v>
       </c>
@@ -55882,7 +55876,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="606" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1440</v>
       </c>
@@ -55903,7 +55897,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="607" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1442</v>
       </c>
@@ -55974,7 +55968,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="610" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1450</v>
       </c>
@@ -55997,7 +55991,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="611" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1453</v>
       </c>
@@ -56020,7 +56014,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="612" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1455</v>
       </c>
@@ -56043,7 +56037,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="613" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1458</v>
       </c>
@@ -56066,7 +56060,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="614" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1461</v>
       </c>
@@ -56087,7 +56081,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="615" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1463</v>
       </c>
@@ -56111,7 +56105,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="616" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1465</v>
       </c>
@@ -56135,7 +56129,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="617" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1468</v>
       </c>
@@ -56162,7 +56156,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="618" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1470</v>
       </c>
@@ -56186,7 +56180,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="619" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1472</v>
       </c>
@@ -56212,7 +56206,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="620" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1476</v>
       </c>
@@ -56235,7 +56229,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="621" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1479</v>
       </c>
@@ -56258,7 +56252,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="622" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1481</v>
       </c>
@@ -56281,7 +56275,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="623" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1484</v>
       </c>
@@ -56304,7 +56298,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="624" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1486</v>
       </c>
@@ -56337,7 +56331,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="625" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1489</v>
       </c>
@@ -56367,7 +56361,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="626" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1491</v>
       </c>
@@ -56391,7 +56385,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="627" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1493</v>
       </c>
@@ -56415,7 +56409,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="628" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1495</v>
       </c>
@@ -56439,7 +56433,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="629" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1497</v>
       </c>
@@ -56463,7 +56457,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="630" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1499</v>
       </c>
@@ -56490,7 +56484,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="631" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1502</v>
       </c>
@@ -56514,7 +56508,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="632" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1504</v>
       </c>
@@ -56538,7 +56532,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="633" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1506</v>
       </c>
@@ -56565,7 +56559,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="634" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1509</v>
       </c>
@@ -56589,7 +56583,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="635" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1511</v>
       </c>
@@ -56612,7 +56606,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="636" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1514</v>
       </c>
@@ -56636,7 +56630,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="637" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1516</v>
       </c>
@@ -56660,7 +56654,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="638" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1518</v>
       </c>
@@ -56687,7 +56681,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="639" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1521</v>
       </c>
@@ -56711,7 +56705,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="640" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1523</v>
       </c>
@@ -56734,7 +56728,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="641" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1526</v>
       </c>
@@ -56758,7 +56752,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="642" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1528</v>
       </c>
@@ -56782,7 +56776,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="643" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1530</v>
       </c>
@@ -56809,7 +56803,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="644" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1533</v>
       </c>
@@ -56833,7 +56827,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="645" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1535</v>
       </c>
@@ -56857,7 +56851,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="646" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1537</v>
       </c>
@@ -56881,7 +56875,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="647" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1539</v>
       </c>
@@ -56905,7 +56899,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="648" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1541</v>
       </c>
@@ -56934,7 +56928,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="649" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1546</v>
       </c>
@@ -56963,7 +56957,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="650" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1548</v>
       </c>
@@ -56992,7 +56986,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="651" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1550</v>
       </c>
@@ -57021,7 +57015,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="652" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1552</v>
       </c>
@@ -57050,7 +57044,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="653" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1554</v>
       </c>
@@ -57079,7 +57073,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="654" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1556</v>
       </c>
@@ -57108,7 +57102,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="655" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1558</v>
       </c>
@@ -57137,7 +57131,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="656" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1560</v>
       </c>
@@ -57166,7 +57160,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="657" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1562</v>
       </c>
@@ -57195,7 +57189,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="658" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1564</v>
       </c>
@@ -57224,7 +57218,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="659" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1566</v>
       </c>
@@ -57253,7 +57247,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="660" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1568</v>
       </c>
@@ -57282,7 +57276,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="661" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1570</v>
       </c>
@@ -57311,7 +57305,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="662" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1572</v>
       </c>
@@ -57340,7 +57334,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="663" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1574</v>
       </c>
@@ -57369,7 +57363,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="664" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1576</v>
       </c>
@@ -57398,7 +57392,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="665" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1578</v>
       </c>
@@ -57427,7 +57421,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="666" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1580</v>
       </c>
@@ -57456,7 +57450,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="667" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1582</v>
       </c>
@@ -57485,7 +57479,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="668" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1584</v>
       </c>
@@ -57514,7 +57508,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="669" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1586</v>
       </c>
@@ -57543,7 +57537,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="670" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1588</v>
       </c>
@@ -57572,7 +57566,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="671" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1590</v>
       </c>
@@ -57601,7 +57595,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="672" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1592</v>
       </c>
@@ -57630,7 +57624,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="673" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1594</v>
       </c>
@@ -57659,7 +57653,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="674" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1596</v>
       </c>
@@ -57688,7 +57682,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="675" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1598</v>
       </c>
@@ -57717,7 +57711,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="676" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1600</v>
       </c>
@@ -57746,7 +57740,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="677" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1602</v>
       </c>
@@ -57775,7 +57769,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="678" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1604</v>
       </c>
@@ -57804,7 +57798,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="679" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1606</v>
       </c>
@@ -57833,7 +57827,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="680" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1608</v>
       </c>
@@ -57862,7 +57856,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="681" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1610</v>
       </c>
@@ -57891,7 +57885,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="682" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1612</v>
       </c>
@@ -57920,7 +57914,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="683" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1614</v>
       </c>
@@ -57949,7 +57943,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="684" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1616</v>
       </c>
@@ -57978,7 +57972,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="685" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1618</v>
       </c>
@@ -58007,7 +58001,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="686" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1620</v>
       </c>
@@ -58036,7 +58030,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="687" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1622</v>
       </c>
@@ -58065,7 +58059,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="688" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1624</v>
       </c>
@@ -58094,7 +58088,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="689" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1626</v>
       </c>
@@ -58123,7 +58117,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="690" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1628</v>
       </c>
@@ -58152,7 +58146,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="691" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1630</v>
       </c>
@@ -58181,7 +58175,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="692" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1632</v>
       </c>
@@ -58210,7 +58204,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="693" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1634</v>
       </c>
@@ -58239,7 +58233,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="694" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1636</v>
       </c>
@@ -58268,7 +58262,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="695" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1638</v>
       </c>
@@ -58297,7 +58291,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="696" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1640</v>
       </c>
@@ -58326,7 +58320,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="697" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1642</v>
       </c>
@@ -58355,7 +58349,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="698" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1644</v>
       </c>
@@ -58384,7 +58378,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="699" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1646</v>
       </c>
@@ -58413,7 +58407,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="700" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1648</v>
       </c>
@@ -58442,7 +58436,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="701" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1650</v>
       </c>
@@ -58471,7 +58465,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="702" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1652</v>
       </c>
@@ -58500,7 +58494,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="703" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1654</v>
       </c>
@@ -58529,7 +58523,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="704" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1656</v>
       </c>
@@ -58558,7 +58552,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="705" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1658</v>
       </c>
@@ -58587,7 +58581,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="706" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1660</v>
       </c>
@@ -58616,7 +58610,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="707" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1662</v>
       </c>
@@ -58645,7 +58639,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="708" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1664</v>
       </c>
@@ -58674,7 +58668,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="709" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1666</v>
       </c>
@@ -58703,7 +58697,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="710" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1668</v>
       </c>
@@ -58732,7 +58726,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="711" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1670</v>
       </c>
@@ -58761,7 +58755,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="712" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1672</v>
       </c>
@@ -58790,7 +58784,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="713" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1674</v>
       </c>
@@ -58819,7 +58813,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="714" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1676</v>
       </c>
@@ -58848,7 +58842,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="715" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1678</v>
       </c>
@@ -58877,7 +58871,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="716" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1680</v>
       </c>
@@ -58906,7 +58900,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="717" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1682</v>
       </c>
@@ -58935,7 +58929,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="718" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1684</v>
       </c>
@@ -58964,7 +58958,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="719" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1686</v>
       </c>
@@ -58993,7 +58987,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="720" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1688</v>
       </c>
@@ -59022,7 +59016,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="721" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1690</v>
       </c>
@@ -59051,7 +59045,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="722" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1692</v>
       </c>
@@ -59080,7 +59074,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="723" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1694</v>
       </c>
@@ -59109,7 +59103,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1696</v>
       </c>
@@ -59138,7 +59132,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="725" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1698</v>
       </c>
@@ -59167,7 +59161,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="726" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1700</v>
       </c>
@@ -59196,7 +59190,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="727" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1702</v>
       </c>
@@ -59225,7 +59219,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="728" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1704</v>
       </c>
@@ -59254,7 +59248,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="729" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1706</v>
       </c>
@@ -59283,7 +59277,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="730" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1708</v>
       </c>
@@ -59312,7 +59306,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="731" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1710</v>
       </c>
@@ -59341,7 +59335,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="732" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1712</v>
       </c>
@@ -59370,7 +59364,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="733" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1714</v>
       </c>
@@ -59399,7 +59393,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="734" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1716</v>
       </c>
@@ -59428,7 +59422,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="735" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1718</v>
       </c>
@@ -59457,7 +59451,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="736" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1720</v>
       </c>
@@ -59486,7 +59480,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="737" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1722</v>
       </c>
@@ -59515,7 +59509,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="738" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1724</v>
       </c>
@@ -59544,7 +59538,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="739" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1726</v>
       </c>
@@ -59567,7 +59561,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="740" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>1729</v>
       </c>
@@ -59596,7 +59590,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="741" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>1732</v>
       </c>
@@ -59625,7 +59619,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="742" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>1734</v>
       </c>
@@ -59654,7 +59648,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="743" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>1736</v>
       </c>
@@ -59683,7 +59677,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="744" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>1738</v>
       </c>
@@ -59712,7 +59706,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="745" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1740</v>
       </c>
@@ -59741,7 +59735,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="746" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>1742</v>
       </c>
@@ -59770,7 +59764,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="747" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>1744</v>
       </c>
@@ -59799,7 +59793,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="748" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>1746</v>
       </c>
@@ -59828,7 +59822,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="749" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1748</v>
       </c>
@@ -59857,7 +59851,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="750" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>1750</v>
       </c>
@@ -59886,7 +59880,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="751" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1752</v>
       </c>
@@ -59915,7 +59909,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="752" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>1754</v>
       </c>
@@ -59944,7 +59938,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="753" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>1756</v>
       </c>
@@ -59973,7 +59967,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="754" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1758</v>
       </c>
@@ -60002,7 +59996,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="755" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1760</v>
       </c>
@@ -60031,7 +60025,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="756" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1762</v>
       </c>
@@ -60060,7 +60054,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="757" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>1764</v>
       </c>
@@ -60089,7 +60083,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="758" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>1766</v>
       </c>
@@ -60118,7 +60112,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="759" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1768</v>
       </c>
@@ -60147,7 +60141,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="760" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>1770</v>
       </c>
@@ -60176,7 +60170,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="761" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1772</v>
       </c>
@@ -60205,7 +60199,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="762" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>1774</v>
       </c>
@@ -60234,7 +60228,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="763" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>1776</v>
       </c>
@@ -60263,7 +60257,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="764" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>1778</v>
       </c>
@@ -60292,7 +60286,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="765" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>1780</v>
       </c>
@@ -60321,7 +60315,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="766" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1782</v>
       </c>
@@ -60350,7 +60344,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="767" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1784</v>
       </c>
@@ -60379,7 +60373,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="768" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>1786</v>
       </c>
@@ -60408,7 +60402,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="769" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1788</v>
       </c>
@@ -60437,7 +60431,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="770" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1790</v>
       </c>
@@ -60466,7 +60460,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="771" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1792</v>
       </c>
@@ -60495,7 +60489,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="772" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1794</v>
       </c>
@@ -60524,7 +60518,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="773" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1796</v>
       </c>
@@ -60553,7 +60547,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="774" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1798</v>
       </c>
@@ -60582,7 +60576,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="775" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1800</v>
       </c>
@@ -60611,7 +60605,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="776" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1802</v>
       </c>
@@ -60640,7 +60634,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="777" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1804</v>
       </c>
@@ -60669,7 +60663,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="778" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1806</v>
       </c>
@@ -60698,7 +60692,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="779" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1808</v>
       </c>
@@ -60727,7 +60721,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="780" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1810</v>
       </c>
@@ -60756,7 +60750,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="781" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1812</v>
       </c>
@@ -60785,7 +60779,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="782" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1814</v>
       </c>
@@ -60814,7 +60808,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="783" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>1816</v>
       </c>
@@ -60843,7 +60837,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="784" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1818</v>
       </c>
@@ -60872,7 +60866,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="785" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>1820</v>
       </c>
@@ -60901,7 +60895,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="786" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1822</v>
       </c>
@@ -60930,7 +60924,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="787" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1824</v>
       </c>
@@ -60959,7 +60953,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="788" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1826</v>
       </c>
@@ -60988,7 +60982,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="789" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1828</v>
       </c>
@@ -61011,7 +61005,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="790" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1831</v>
       </c>
@@ -61040,7 +61034,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="791" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1834</v>
       </c>
@@ -61069,7 +61063,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="792" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1836</v>
       </c>
@@ -61098,7 +61092,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="793" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1838</v>
       </c>
@@ -61127,7 +61121,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="794" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>1840</v>
       </c>
@@ -61156,7 +61150,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="795" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>1842</v>
       </c>
@@ -61185,7 +61179,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="796" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>1844</v>
       </c>
@@ -61214,7 +61208,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="797" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>1846</v>
       </c>
@@ -61243,7 +61237,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="798" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>1848</v>
       </c>
@@ -61272,7 +61266,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="799" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>1850</v>
       </c>
@@ -61301,7 +61295,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="800" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>1852</v>
       </c>
@@ -61330,7 +61324,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="801" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1854</v>
       </c>
@@ -61359,7 +61353,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="802" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1856</v>
       </c>
@@ -61388,7 +61382,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="803" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1858</v>
       </c>
@@ -61417,7 +61411,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="804" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1860</v>
       </c>
@@ -61446,7 +61440,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="805" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1862</v>
       </c>
@@ -61475,7 +61469,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="806" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1864</v>
       </c>
@@ -61504,7 +61498,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="807" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1866</v>
       </c>
@@ -61533,7 +61527,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="808" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1868</v>
       </c>
@@ -61562,7 +61556,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="809" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1870</v>
       </c>
@@ -61591,7 +61585,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="810" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1872</v>
       </c>
@@ -61620,7 +61614,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="811" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>1874</v>
       </c>
@@ -61649,7 +61643,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="812" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>1876</v>
       </c>
@@ -61678,7 +61672,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="813" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>1878</v>
       </c>
@@ -61707,7 +61701,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="814" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>1880</v>
       </c>
@@ -61736,7 +61730,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="815" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>1882</v>
       </c>
@@ -61765,7 +61759,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="816" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>1884</v>
       </c>
@@ -61794,7 +61788,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="817" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1886</v>
       </c>
@@ -61823,7 +61817,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="818" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1888</v>
       </c>
@@ -61852,7 +61846,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="819" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1890</v>
       </c>
@@ -61881,7 +61875,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="820" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1892</v>
       </c>
@@ -61910,7 +61904,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="821" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1894</v>
       </c>
@@ -61939,7 +61933,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="822" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1896</v>
       </c>
@@ -61968,7 +61962,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="823" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1898</v>
       </c>
@@ -61997,7 +61991,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="824" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1900</v>
       </c>
@@ -62026,7 +62020,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="825" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1902</v>
       </c>
@@ -62055,7 +62049,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="826" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1904</v>
       </c>
@@ -62084,7 +62078,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="827" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1906</v>
       </c>
@@ -62113,7 +62107,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="828" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1908</v>
       </c>
@@ -62142,7 +62136,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="829" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1910</v>
       </c>
@@ -62171,7 +62165,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="830" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1912</v>
       </c>
@@ -62200,7 +62194,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="831" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1914</v>
       </c>
@@ -62229,7 +62223,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="832" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>1916</v>
       </c>
@@ -62258,7 +62252,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="833" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1918</v>
       </c>
@@ -62287,7 +62281,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="834" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>1920</v>
       </c>
@@ -62316,7 +62310,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="835" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1922</v>
       </c>
@@ -62345,7 +62339,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="836" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>1924</v>
       </c>
@@ -62374,7 +62368,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="837" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>1926</v>
       </c>
@@ -62403,7 +62397,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="838" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1928</v>
       </c>
@@ -62426,7 +62420,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="839" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1931</v>
       </c>
@@ -62455,7 +62449,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="840" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>1934</v>
       </c>
@@ -62484,7 +62478,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="841" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1936</v>
       </c>
@@ -62513,7 +62507,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="842" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>1938</v>
       </c>
@@ -62542,7 +62536,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="843" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>1940</v>
       </c>
@@ -62571,7 +62565,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="844" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>1942</v>
       </c>
@@ -62600,7 +62594,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="845" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>1944</v>
       </c>
@@ -62629,7 +62623,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="846" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1946</v>
       </c>
@@ -62658,7 +62652,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="847" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>1948</v>
       </c>
@@ -62687,7 +62681,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="848" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1950</v>
       </c>
@@ -62716,7 +62710,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="849" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>1952</v>
       </c>
@@ -62745,7 +62739,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="850" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1954</v>
       </c>
@@ -62774,7 +62768,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="851" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1956</v>
       </c>
@@ -62803,7 +62797,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="852" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1958</v>
       </c>
@@ -62832,7 +62826,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="853" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>1960</v>
       </c>
@@ -62861,7 +62855,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="854" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>1962</v>
       </c>
@@ -62890,7 +62884,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="855" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>1964</v>
       </c>
@@ -62919,7 +62913,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="856" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1966</v>
       </c>
@@ -62948,7 +62942,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="857" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1968</v>
       </c>
@@ -62977,7 +62971,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="858" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1970</v>
       </c>
@@ -63006,7 +63000,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="859" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>1972</v>
       </c>
@@ -63035,7 +63029,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="860" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>1974</v>
       </c>
@@ -63064,7 +63058,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="861" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1976</v>
       </c>
@@ -63093,7 +63087,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="862" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>1978</v>
       </c>
@@ -63122,7 +63116,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="863" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>1980</v>
       </c>
@@ -63151,7 +63145,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="864" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1982</v>
       </c>
@@ -63180,7 +63174,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="865" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1984</v>
       </c>
@@ -63209,7 +63203,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="866" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>1986</v>
       </c>
@@ -63238,7 +63232,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="867" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>1988</v>
       </c>
@@ -63267,7 +63261,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="868" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>1990</v>
       </c>
@@ -63296,7 +63290,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="869" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>1992</v>
       </c>
@@ -63325,7 +63319,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="870" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>1994</v>
       </c>
@@ -63354,7 +63348,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="871" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>1996</v>
       </c>
@@ -63383,7 +63377,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="872" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>1998</v>
       </c>
@@ -63412,7 +63406,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="873" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>2000</v>
       </c>
@@ -63441,7 +63435,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="874" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>2002</v>
       </c>
@@ -63470,7 +63464,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="875" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>2004</v>
       </c>
@@ -63499,7 +63493,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="876" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>2006</v>
       </c>
@@ -63528,7 +63522,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="877" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>2008</v>
       </c>
@@ -63557,7 +63551,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="878" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>2010</v>
       </c>
@@ -63586,7 +63580,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="879" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>2012</v>
       </c>
@@ -63615,7 +63609,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="880" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>2014</v>
       </c>
@@ -63644,7 +63638,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="881" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>2016</v>
       </c>
@@ -63673,7 +63667,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="882" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>2018</v>
       </c>
@@ -63702,7 +63696,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="883" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>2020</v>
       </c>
@@ -63731,7 +63725,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="884" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>2022</v>
       </c>
@@ -63760,7 +63754,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="885" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>2024</v>
       </c>
@@ -63789,7 +63783,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="886" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>2026</v>
       </c>
@@ -63818,7 +63812,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="887" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>2028</v>
       </c>
@@ -63847,7 +63841,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="888" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>2030</v>
       </c>
@@ -63876,7 +63870,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="889" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>2032</v>
       </c>
@@ -63905,7 +63899,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="890" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>2034</v>
       </c>
@@ -63934,7 +63928,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="891" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>2036</v>
       </c>
@@ -63963,7 +63957,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="892" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>2038</v>
       </c>
@@ -63992,7 +63986,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="893" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>2040</v>
       </c>
@@ -64021,7 +64015,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="894" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>2042</v>
       </c>
@@ -64050,7 +64044,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="895" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>2044</v>
       </c>
@@ -64079,7 +64073,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="896" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>2046</v>
       </c>
@@ -64108,7 +64102,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="897" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>2048</v>
       </c>
@@ -64137,7 +64131,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="898" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>2050</v>
       </c>
@@ -64166,7 +64160,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="899" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>2052</v>
       </c>
@@ -64195,7 +64189,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="900" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>2054</v>
       </c>
@@ -64224,7 +64218,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="901" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>2056</v>
       </c>
@@ -64253,7 +64247,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="902" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>2058</v>
       </c>
@@ -64282,7 +64276,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="903" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>2060</v>
       </c>
@@ -64311,7 +64305,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="904" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>2062</v>
       </c>
@@ -64340,7 +64334,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="905" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>2064</v>
       </c>
@@ -64363,7 +64357,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="906" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>2067</v>
       </c>
@@ -64392,7 +64386,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="907" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>2070</v>
       </c>
@@ -64421,7 +64415,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="908" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>2072</v>
       </c>
@@ -64450,7 +64444,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="909" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>2074</v>
       </c>
@@ -64479,7 +64473,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="910" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>2076</v>
       </c>
@@ -64508,7 +64502,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="911" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>2078</v>
       </c>
@@ -64537,7 +64531,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="912" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>2080</v>
       </c>
@@ -64566,7 +64560,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="913" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>2082</v>
       </c>
@@ -64595,7 +64589,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="914" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>2084</v>
       </c>
@@ -64624,7 +64618,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="915" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>2086</v>
       </c>
@@ -64653,7 +64647,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="916" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>2088</v>
       </c>
@@ -64682,7 +64676,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="917" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>2090</v>
       </c>
@@ -64711,7 +64705,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="918" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>2092</v>
       </c>
@@ -64740,7 +64734,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="919" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>2094</v>
       </c>
@@ -64769,7 +64763,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="920" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>2096</v>
       </c>
@@ -64798,7 +64792,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="921" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>2098</v>
       </c>
@@ -64827,7 +64821,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="922" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>2100</v>
       </c>
@@ -64856,7 +64850,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="923" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>2102</v>
       </c>
@@ -64885,7 +64879,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="924" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>2104</v>
       </c>
@@ -64914,7 +64908,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="925" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>2106</v>
       </c>
@@ -64943,7 +64937,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="926" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>2108</v>
       </c>
@@ -64972,7 +64966,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="927" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>2110</v>
       </c>
@@ -65001,7 +64995,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="928" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>2112</v>
       </c>
@@ -65030,7 +65024,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="929" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>2114</v>
       </c>
@@ -65059,7 +65053,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="930" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>2116</v>
       </c>
@@ -65088,7 +65082,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="931" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>2118</v>
       </c>
@@ -65117,7 +65111,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="932" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>2120</v>
       </c>
@@ -65146,7 +65140,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="933" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>2122</v>
       </c>
@@ -65175,7 +65169,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="934" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>2124</v>
       </c>
@@ -65204,7 +65198,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="935" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>2126</v>
       </c>
@@ -65233,7 +65227,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="936" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>2128</v>
       </c>
@@ -65262,7 +65256,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="937" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>2130</v>
       </c>
@@ -65291,7 +65285,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="938" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>2132</v>
       </c>
@@ -65320,7 +65314,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="939" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>2134</v>
       </c>
@@ -65349,7 +65343,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="940" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>2136</v>
       </c>
@@ -65378,7 +65372,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="941" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>2138</v>
       </c>
@@ -65407,7 +65401,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="942" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>2140</v>
       </c>
@@ -65436,7 +65430,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="943" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>2142</v>
       </c>
@@ -65465,7 +65459,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="944" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>2144</v>
       </c>
@@ -65494,7 +65488,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="945" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>2146</v>
       </c>
@@ -65523,7 +65517,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="946" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>2148</v>
       </c>
@@ -65552,7 +65546,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="947" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>2150</v>
       </c>
@@ -65581,7 +65575,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="948" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>2152</v>
       </c>
@@ -65610,7 +65604,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="949" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>2154</v>
       </c>
@@ -65639,7 +65633,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="950" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>2156</v>
       </c>
@@ -65668,7 +65662,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="951" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>2158</v>
       </c>
@@ -65697,7 +65691,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="952" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>2160</v>
       </c>
@@ -65726,7 +65720,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="953" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>2162</v>
       </c>
@@ -65755,7 +65749,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="954" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>2164</v>
       </c>
@@ -65784,7 +65778,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="955" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>2166</v>
       </c>
@@ -65813,7 +65807,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="956" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>2168</v>
       </c>
@@ -65842,7 +65836,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="957" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>2170</v>
       </c>
@@ -65871,7 +65865,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="958" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>2172</v>
       </c>
@@ -65900,7 +65894,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="959" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>2174</v>
       </c>
@@ -65929,7 +65923,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="960" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>2176</v>
       </c>
@@ -65958,7 +65952,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="961" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>2178</v>
       </c>
@@ -65987,7 +65981,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="962" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>2180</v>
       </c>
@@ -66016,7 +66010,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="963" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>2182</v>
       </c>
@@ -66045,7 +66039,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="964" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>2184</v>
       </c>
@@ -66074,7 +66068,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="965" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>2186</v>
       </c>
@@ -66103,7 +66097,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="966" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>2188</v>
       </c>
@@ -66132,7 +66126,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="967" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>2190</v>
       </c>
@@ -66161,7 +66155,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="968" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>2192</v>
       </c>
@@ -66190,7 +66184,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="969" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>2194</v>
       </c>
@@ -66219,7 +66213,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="970" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>2196</v>
       </c>
@@ -66248,7 +66242,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="971" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>2198</v>
       </c>
@@ -66277,7 +66271,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="972" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>2200</v>
       </c>
@@ -66306,7 +66300,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="973" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>2202</v>
       </c>
@@ -66335,7 +66329,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="974" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>2204</v>
       </c>
@@ -66364,7 +66358,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="975" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>2206</v>
       </c>
@@ -66393,7 +66387,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="976" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>2208</v>
       </c>
@@ -66422,7 +66416,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="977" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>2210</v>
       </c>
@@ -66451,7 +66445,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="978" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>2212</v>
       </c>
@@ -66474,7 +66468,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="979" spans="1:20" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>2215</v>
       </c>
@@ -66503,7 +66497,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="980" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>2221</v>
       </c>
@@ -66529,7 +66523,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="981" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>2223</v>
       </c>
@@ -66555,7 +66549,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="982" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>2225</v>
       </c>
@@ -66581,7 +66575,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="983" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>2227</v>
       </c>
@@ -66607,7 +66601,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="984" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>2229</v>
       </c>
@@ -66633,7 +66627,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="985" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>2231</v>
       </c>
@@ -66659,7 +66653,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="986" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>2233</v>
       </c>
@@ -66685,7 +66679,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="987" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>2235</v>
       </c>
@@ -66711,7 +66705,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="988" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>2237</v>
       </c>
@@ -66737,7 +66731,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="989" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>2239</v>
       </c>
@@ -66763,7 +66757,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="990" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>2241</v>
       </c>
@@ -66789,7 +66783,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="991" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>2243</v>
       </c>
@@ -66815,7 +66809,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="992" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>2245</v>
       </c>
@@ -66841,7 +66835,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="993" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>2247</v>
       </c>
@@ -66867,7 +66861,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="994" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>2249</v>
       </c>
@@ -66893,7 +66887,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="995" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>2251</v>
       </c>
@@ -66919,7 +66913,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="996" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>2253</v>
       </c>
@@ -66945,7 +66939,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="997" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>2255</v>
       </c>
@@ -66971,7 +66965,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="998" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>2257</v>
       </c>
@@ -66997,7 +66991,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="999" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>2259</v>
       </c>
@@ -67023,7 +67017,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1000" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>2261</v>
       </c>
@@ -67049,7 +67043,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1001" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>2263</v>
       </c>
@@ -67075,7 +67069,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1002" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>2265</v>
       </c>
@@ -67101,7 +67095,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1003" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>2267</v>
       </c>
@@ -67127,7 +67121,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1004" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>2269</v>
       </c>
@@ -67153,7 +67147,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1005" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>2271</v>
       </c>
@@ -67179,7 +67173,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1006" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>2273</v>
       </c>
@@ -67205,7 +67199,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1007" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>2275</v>
       </c>
@@ -67231,7 +67225,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1008" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>2277</v>
       </c>
@@ -67257,7 +67251,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1009" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>2279</v>
       </c>
@@ -67283,7 +67277,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1010" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>2281</v>
       </c>
@@ -67309,7 +67303,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1011" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>2283</v>
       </c>
@@ -67335,7 +67329,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1012" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>2285</v>
       </c>
@@ -67361,7 +67355,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1013" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>2287</v>
       </c>
@@ -67387,7 +67381,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1014" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>2289</v>
       </c>
@@ -67413,7 +67407,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1015" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>2291</v>
       </c>
@@ -67437,7 +67431,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1016" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>2293</v>
       </c>
@@ -67461,7 +67455,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1017" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>2295</v>
       </c>
@@ -67485,7 +67479,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1018" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>2297</v>
       </c>
@@ -67509,7 +67503,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1019" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>2300</v>
       </c>
@@ -67535,7 +67529,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1020" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>2303</v>
       </c>
@@ -67561,7 +67555,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1021" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>2305</v>
       </c>
@@ -67587,7 +67581,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1022" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>2307</v>
       </c>
@@ -67613,7 +67607,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1023" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>2309</v>
       </c>
@@ -67639,7 +67633,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1024" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>2311</v>
       </c>
@@ -67665,7 +67659,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1025" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>2313</v>
       </c>
@@ -67691,7 +67685,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1026" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>2315</v>
       </c>
@@ -67717,7 +67711,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1027" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>2317</v>
       </c>
@@ -67743,7 +67737,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1028" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>2319</v>
       </c>
@@ -67769,7 +67763,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1029" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>2321</v>
       </c>
@@ -67795,7 +67789,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1030" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>2323</v>
       </c>
@@ -67821,7 +67815,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1031" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>2325</v>
       </c>
@@ -67847,7 +67841,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1032" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>2327</v>
       </c>
@@ -67873,7 +67867,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1033" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>2329</v>
       </c>
@@ -67899,7 +67893,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1034" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>2331</v>
       </c>
@@ -67925,7 +67919,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1035" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>2333</v>
       </c>
@@ -67951,7 +67945,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1036" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>2335</v>
       </c>
@@ -67977,7 +67971,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1037" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>2337</v>
       </c>
@@ -68003,7 +67997,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1038" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>2339</v>
       </c>
@@ -68029,7 +68023,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1039" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>2341</v>
       </c>
@@ -68055,7 +68049,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1040" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>2343</v>
       </c>
@@ -68081,7 +68075,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1041" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>2345</v>
       </c>
@@ -68107,7 +68101,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1042" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>2347</v>
       </c>
@@ -68133,7 +68127,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1043" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>2349</v>
       </c>
@@ -68159,7 +68153,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1044" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>2351</v>
       </c>
@@ -68185,7 +68179,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1045" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>2353</v>
       </c>
@@ -68211,7 +68205,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1046" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>2355</v>
       </c>
@@ -68237,7 +68231,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1047" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>2357</v>
       </c>
@@ -68263,7 +68257,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1048" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>2361</v>
       </c>
@@ -68289,7 +68283,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1049" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>2363</v>
       </c>
@@ -68315,7 +68309,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1050" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>2365</v>
       </c>
@@ -68341,7 +68335,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1051" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>2367</v>
       </c>
@@ -68367,7 +68361,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1052" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>2369</v>
       </c>
@@ -68393,7 +68387,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1053" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>2371</v>
       </c>
@@ -68419,7 +68413,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1054" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>2373</v>
       </c>
@@ -68445,7 +68439,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1055" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>2375</v>
       </c>
@@ -68471,7 +68465,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1056" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>2377</v>
       </c>
@@ -68497,7 +68491,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1057" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>2379</v>
       </c>
@@ -68523,7 +68517,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1058" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>2381</v>
       </c>
@@ -68549,7 +68543,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1059" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>2383</v>
       </c>
@@ -68575,7 +68569,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1060" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>2385</v>
       </c>
@@ -68601,7 +68595,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1061" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>2387</v>
       </c>
@@ -68627,7 +68621,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1062" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>2389</v>
       </c>
@@ -68653,7 +68647,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1063" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>2391</v>
       </c>
@@ -68679,7 +68673,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1064" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>2393</v>
       </c>
@@ -68705,7 +68699,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1065" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>2395</v>
       </c>
@@ -68731,7 +68725,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1066" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>2397</v>
       </c>
@@ -68757,7 +68751,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1067" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>2399</v>
       </c>
@@ -68783,7 +68777,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1068" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>2401</v>
       </c>
@@ -68809,7 +68803,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1069" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>2403</v>
       </c>
@@ -68835,7 +68829,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1070" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>2405</v>
       </c>
@@ -68861,7 +68855,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1071" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>2407</v>
       </c>
@@ -68887,7 +68881,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1072" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>2409</v>
       </c>
@@ -68911,7 +68905,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1073" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>2411</v>
       </c>
@@ -68940,7 +68934,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1074" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>2417</v>
       </c>
@@ -68966,7 +68960,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1075" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>2419</v>
       </c>
@@ -68992,7 +68986,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1076" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>2421</v>
       </c>
@@ -69018,7 +69012,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1077" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>2423</v>
       </c>
@@ -69044,7 +69038,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1078" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>2425</v>
       </c>
@@ -69070,7 +69064,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1079" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>2427</v>
       </c>
@@ -69096,7 +69090,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1080" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>2429</v>
       </c>
@@ -69122,7 +69116,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1081" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>2431</v>
       </c>
@@ -69148,7 +69142,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1082" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>2433</v>
       </c>
@@ -69174,7 +69168,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1083" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>2435</v>
       </c>
@@ -69200,7 +69194,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1084" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>2437</v>
       </c>
@@ -69229,7 +69223,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1085" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>2440</v>
       </c>
@@ -69255,7 +69249,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1086" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>2442</v>
       </c>
@@ -69281,7 +69275,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1087" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>2444</v>
       </c>
@@ -69307,7 +69301,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1088" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>2446</v>
       </c>
@@ -69333,7 +69327,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1089" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>2448</v>
       </c>
@@ -69359,7 +69353,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1090" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>2450</v>
       </c>
@@ -69385,7 +69379,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1091" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>2452</v>
       </c>
@@ -69414,7 +69408,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1092" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
         <v>2454</v>
       </c>
@@ -69440,7 +69434,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1093" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>2456</v>
       </c>
@@ -69466,7 +69460,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1094" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>2458</v>
       </c>
@@ -69492,7 +69486,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1095" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>2460</v>
       </c>
@@ -69518,7 +69512,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1096" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>2462</v>
       </c>
@@ -69544,7 +69538,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1097" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>2464</v>
       </c>
@@ -69565,7 +69559,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1098" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>2466</v>
       </c>
@@ -69594,7 +69588,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1099" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>2469</v>
       </c>
@@ -69620,7 +69614,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1100" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>2471</v>
       </c>
@@ -69646,7 +69640,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1101" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>2473</v>
       </c>
@@ -69672,7 +69666,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1102" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>2475</v>
       </c>
@@ -69698,7 +69692,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1103" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>2477</v>
       </c>
@@ -69724,7 +69718,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1104" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>2479</v>
       </c>
@@ -69750,7 +69744,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1105" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>2481</v>
       </c>
@@ -69771,7 +69765,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1106" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>2482</v>
       </c>
@@ -69797,7 +69791,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1107" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>2485</v>
       </c>
@@ -69818,7 +69812,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1108" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>2486</v>
       </c>
@@ -69844,7 +69838,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1109" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
         <v>2489</v>
       </c>
@@ -69870,7 +69864,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1110" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>2491</v>
       </c>
@@ -69899,7 +69893,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1111" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>2493</v>
       </c>
@@ -69925,7 +69919,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1112" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>2495</v>
       </c>
@@ -69951,7 +69945,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1113" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>2497</v>
       </c>
@@ -69977,7 +69971,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1114" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>2499</v>
       </c>
@@ -70003,7 +69997,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1115" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>2501</v>
       </c>
@@ -70029,7 +70023,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1116" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>2503</v>
       </c>
@@ -70055,7 +70049,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1117" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>2505</v>
       </c>
@@ -70084,7 +70078,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1118" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>2507</v>
       </c>
@@ -70110,7 +70104,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1119" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>2509</v>
       </c>
@@ -70136,7 +70130,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1120" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>2511</v>
       </c>
@@ -70162,7 +70156,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1121" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
         <v>2513</v>
       </c>
@@ -70188,7 +70182,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1122" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
         <v>2515</v>
       </c>
@@ -70209,7 +70203,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1123" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
         <v>2516</v>
       </c>
@@ -70235,7 +70229,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1124" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>2519</v>
       </c>
@@ -70261,7 +70255,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1125" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
         <v>2521</v>
       </c>
@@ -70287,7 +70281,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1126" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>2523</v>
       </c>
@@ -70313,7 +70307,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1127" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
         <v>2525</v>
       </c>
@@ -70342,7 +70336,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1128" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
         <v>2527</v>
       </c>
@@ -70368,7 +70362,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
         <v>2529</v>
       </c>
@@ -70394,7 +70388,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
         <v>2531</v>
       </c>
@@ -70420,7 +70414,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
         <v>2533</v>
       </c>
@@ -70441,7 +70435,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
         <v>2534</v>
       </c>
@@ -70467,7 +70461,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
         <v>2537</v>
       </c>
@@ -70493,7 +70487,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
         <v>2539</v>
       </c>
@@ -70519,7 +70513,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
         <v>2541</v>
       </c>
@@ -70540,7 +70534,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
         <v>2542</v>
       </c>
@@ -70566,7 +70560,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
         <v>2545</v>
       </c>
@@ -70592,7 +70586,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
         <v>2547</v>
       </c>
@@ -70618,7 +70612,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
         <v>2549</v>
       </c>
@@ -70644,7 +70638,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
         <v>2551</v>
       </c>
@@ -70670,7 +70664,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
         <v>2553</v>
       </c>
@@ -70696,7 +70690,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
         <v>2555</v>
       </c>
@@ -70722,7 +70716,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
         <v>2557</v>
       </c>
@@ -70748,7 +70742,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
         <v>2559</v>
       </c>
@@ -70769,7 +70763,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
         <v>2560</v>
       </c>
@@ -70795,7 +70789,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
         <v>2563</v>
       </c>
@@ -70821,7 +70815,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
         <v>2565</v>
       </c>
@@ -70847,7 +70841,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
         <v>2567</v>
       </c>
@@ -70873,7 +70867,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>2569</v>
       </c>
@@ -70899,7 +70893,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
         <v>2571</v>
       </c>
@@ -70925,7 +70919,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>2573</v>
       </c>
@@ -70951,7 +70945,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>2575</v>
       </c>
@@ -70977,7 +70971,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>2577</v>
       </c>
@@ -71003,7 +70997,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>2579</v>
       </c>
@@ -71024,7 +71018,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>2580</v>
       </c>
@@ -71050,7 +71044,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
         <v>2583</v>
       </c>
@@ -71076,7 +71070,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>2585</v>
       </c>
@@ -71097,7 +71091,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>2586</v>
       </c>
@@ -71123,7 +71117,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>2589</v>
       </c>
@@ -71149,7 +71143,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>2591</v>
       </c>
@@ -71175,7 +71169,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>2593</v>
       </c>
@@ -71201,7 +71195,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
         <v>2595</v>
       </c>
@@ -71222,7 +71216,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
         <v>2596</v>
       </c>
@@ -71248,7 +71242,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
         <v>2599</v>
       </c>
@@ -71274,7 +71268,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
         <v>2601</v>
       </c>
@@ -71300,7 +71294,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
         <v>2603</v>
       </c>
@@ -71326,7 +71320,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
         <v>2605</v>
       </c>
@@ -71352,7 +71346,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
         <v>2607</v>
       </c>
@@ -71378,7 +71372,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>2609</v>
       </c>
@@ -71404,7 +71398,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>2611</v>
       </c>
@@ -71430,7 +71424,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>2613</v>
       </c>
@@ -71456,7 +71450,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>2615</v>
       </c>
@@ -71482,7 +71476,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>2617</v>
       </c>
@@ -71508,7 +71502,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>2619</v>
       </c>
@@ -71534,7 +71528,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>2621</v>
       </c>
@@ -71555,7 +71549,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>2622</v>
       </c>
@@ -71581,7 +71575,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1177" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>2625</v>
       </c>
@@ -71607,7 +71601,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1178" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>2627</v>
       </c>
@@ -71633,7 +71627,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1179" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>2629</v>
       </c>
@@ -71659,7 +71653,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1180" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>2631</v>
       </c>
@@ -71685,7 +71679,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1181" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>2633</v>
       </c>
@@ -71711,7 +71705,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1182" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>2635</v>
       </c>
@@ -71737,7 +71731,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1183" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>2637</v>
       </c>
@@ -71760,7 +71754,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1184" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>2639</v>
       </c>
@@ -71778,7 +71772,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1185" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>2640</v>
       </c>
@@ -71801,7 +71795,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1186" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>2641</v>
       </c>
@@ -71819,7 +71813,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1187" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>2642</v>
       </c>
@@ -71842,7 +71836,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1188" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>2643</v>
       </c>
@@ -71860,7 +71854,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1189" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>2644</v>
       </c>
@@ -71883,7 +71877,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1190" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>2647</v>
       </c>
@@ -71904,7 +71898,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1191" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
         <v>2649</v>
       </c>
@@ -71925,7 +71919,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1192" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
         <v>2651</v>
       </c>
@@ -71946,7 +71940,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1193" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
         <v>2653</v>
       </c>
@@ -71970,7 +71964,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1194" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
         <v>2655</v>
       </c>
@@ -71991,7 +71985,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1195" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
         <v>2657</v>
       </c>
@@ -72012,7 +72006,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1196" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
         <v>2659</v>
       </c>
@@ -72036,7 +72030,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1197" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>2661</v>
       </c>
@@ -72060,7 +72054,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1198" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
         <v>2663</v>
       </c>
@@ -72084,7 +72078,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1199" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
         <v>2665</v>
       </c>
@@ -72108,7 +72102,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1200" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>2667</v>
       </c>
@@ -72132,7 +72126,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1201" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>2669</v>
       </c>
@@ -72156,7 +72150,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1202" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>2671</v>
       </c>
@@ -72180,7 +72174,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1203" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>2673</v>
       </c>
@@ -72204,7 +72198,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1204" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>2675</v>
       </c>
@@ -72228,7 +72222,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1205" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>2677</v>
       </c>
@@ -72252,7 +72246,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1206" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>2679</v>
       </c>
@@ -72276,7 +72270,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1207" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>2681</v>
       </c>
@@ -72300,7 +72294,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1208" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>2683</v>
       </c>
@@ -72324,7 +72318,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1209" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>2685</v>
       </c>
@@ -72348,7 +72342,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1210" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>2687</v>
       </c>
@@ -72372,7 +72366,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1211" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
         <v>2689</v>
       </c>
@@ -72396,7 +72390,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1212" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
         <v>2691</v>
       </c>
@@ -72420,7 +72414,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1213" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
         <v>2693</v>
       </c>
@@ -72444,7 +72438,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1214" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
         <v>2695</v>
       </c>
@@ -72468,7 +72462,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1215" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
         <v>2697</v>
       </c>
@@ -72492,7 +72486,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1216" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
         <v>2699</v>
       </c>
@@ -72516,7 +72510,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1217" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
         <v>2701</v>
       </c>
@@ -72540,7 +72534,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1218" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
         <v>2703</v>
       </c>
@@ -72564,7 +72558,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1219" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
         <v>2705</v>
       </c>
@@ -72588,7 +72582,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1220" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
         <v>2707</v>
       </c>
@@ -72612,7 +72606,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1221" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
         <v>2709</v>
       </c>
@@ -72636,7 +72630,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1222" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
         <v>2711</v>
       </c>
@@ -72659,7 +72653,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1223" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
         <v>2715</v>
       </c>
@@ -72685,7 +72679,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1224" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
         <v>2719</v>
       </c>
@@ -72711,7 +72705,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1225" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
         <v>2722</v>
       </c>
@@ -72737,7 +72731,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1226" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
         <v>2725</v>
       </c>
@@ -72763,7 +72757,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1227" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
         <v>2728</v>
       </c>
@@ -72789,7 +72783,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1228" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
         <v>2731</v>
       </c>
@@ -72815,7 +72809,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1229" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
         <v>2734</v>
       </c>
@@ -72841,7 +72835,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1230" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
         <v>2737</v>
       </c>
@@ -72867,7 +72861,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1231" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
         <v>2740</v>
       </c>
@@ -72893,7 +72887,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1232" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
         <v>2743</v>
       </c>
@@ -72919,7 +72913,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1233" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
         <v>2746</v>
       </c>
@@ -72945,7 +72939,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1234" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
         <v>2749</v>
       </c>
@@ -72971,7 +72965,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1235" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
         <v>2752</v>
       </c>
@@ -72997,7 +72991,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1236" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
         <v>2755</v>
       </c>
@@ -73023,7 +73017,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1237" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
         <v>2758</v>
       </c>
@@ -73049,7 +73043,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1238" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
         <v>2761</v>
       </c>
@@ -73075,7 +73069,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1239" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
         <v>2764</v>
       </c>
@@ -73101,7 +73095,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1240" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
         <v>2767</v>
       </c>
@@ -73127,7 +73121,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
         <v>2770</v>
       </c>
@@ -73153,7 +73147,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
         <v>2773</v>
       </c>
@@ -73179,7 +73173,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
         <v>2776</v>
       </c>
@@ -73205,7 +73199,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
         <v>2779</v>
       </c>
@@ -73231,7 +73225,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
         <v>2782</v>
       </c>
@@ -73257,7 +73251,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
         <v>2785</v>
       </c>
@@ -73283,7 +73277,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
         <v>2788</v>
       </c>
@@ -73309,7 +73303,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
         <v>2791</v>
       </c>
@@ -73335,7 +73329,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
         <v>2794</v>
       </c>
@@ -73361,7 +73355,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
         <v>2796</v>
       </c>
@@ -73387,7 +73381,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
         <v>2799</v>
       </c>
@@ -73413,7 +73407,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
         <v>2802</v>
       </c>
@@ -73436,7 +73430,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
         <v>2804</v>
       </c>
@@ -73459,7 +73453,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
         <v>2806</v>
       </c>
@@ -73482,7 +73476,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
         <v>2808</v>
       </c>
@@ -73505,7 +73499,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1256" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
         <v>2810</v>
       </c>
@@ -73551,7 +73545,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1258" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
         <v>2816</v>
       </c>
@@ -73574,7 +73568,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1259" spans="1:20" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
         <v>2819</v>
       </c>
@@ -73597,7 +73591,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
         <v>2822</v>
       </c>
@@ -73617,7 +73611,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
         <v>2824</v>
       </c>
@@ -73638,7 +73632,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1262" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
         <v>2826</v>
       </c>
@@ -73739,7 +73733,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1266" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
         <v>2835</v>
       </c>
@@ -73762,7 +73756,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1267" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1267" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
         <v>2837</v>
       </c>
@@ -73964,7 +73958,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
         <v>2856</v>
       </c>
@@ -73990,7 +73984,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
         <v>2859</v>
       </c>
@@ -74016,7 +74010,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
         <v>2860</v>
       </c>
@@ -74042,7 +74036,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
         <v>2861</v>
       </c>
@@ -74068,7 +74062,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
         <v>2862</v>
       </c>
@@ -74094,7 +74088,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
         <v>2863</v>
       </c>
@@ -74120,7 +74114,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
         <v>2864</v>
       </c>
@@ -74146,7 +74140,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
         <v>2865</v>
       </c>
@@ -74172,7 +74166,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
         <v>2866</v>
       </c>
@@ -74198,7 +74192,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
         <v>2867</v>
       </c>
@@ -74224,7 +74218,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
         <v>2868</v>
       </c>
@@ -74250,7 +74244,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
         <v>2869</v>
       </c>
@@ -74276,7 +74270,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
         <v>2870</v>
       </c>
@@ -74302,7 +74296,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
         <v>2871</v>
       </c>
@@ -74328,7 +74322,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
         <v>2872</v>
       </c>
@@ -74354,7 +74348,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
         <v>2873</v>
       </c>
@@ -74380,7 +74374,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
         <v>2874</v>
       </c>
@@ -74406,7 +74400,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
         <v>2875</v>
       </c>
@@ -74432,7 +74426,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1293" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
         <v>2876</v>
       </c>
@@ -74458,7 +74452,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
         <v>2877</v>
       </c>
@@ -74484,7 +74478,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
         <v>2878</v>
       </c>
@@ -74510,7 +74504,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
         <v>2879</v>
       </c>
@@ -74536,7 +74530,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
         <v>2880</v>
       </c>
@@ -74562,7 +74556,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
         <v>2881</v>
       </c>
@@ -74588,7 +74582,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
         <v>2882</v>
       </c>
@@ -74614,7 +74608,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
         <v>2883</v>
       </c>
@@ -74640,7 +74634,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
         <v>2884</v>
       </c>
@@ -74666,7 +74660,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1302" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
         <v>2885</v>
       </c>
@@ -74692,7 +74686,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1303" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
         <v>2886</v>
       </c>
@@ -74718,7 +74712,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
         <v>2887</v>
       </c>
@@ -74744,7 +74738,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1305" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
         <v>2888</v>
       </c>
@@ -74767,7 +74761,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
         <v>2889</v>
       </c>
@@ -74790,7 +74784,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
         <v>2890</v>
       </c>
@@ -74813,7 +74807,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
         <v>2891</v>
       </c>
@@ -74836,7 +74830,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
         <v>2892</v>
       </c>
@@ -74865,7 +74859,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1310" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
         <v>2895</v>
       </c>
@@ -74911,7 +74905,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1312" spans="1:20" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
         <v>2900</v>
       </c>
@@ -74934,7 +74928,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1313" spans="1:20" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
         <v>2903</v>
       </c>
@@ -74957,7 +74951,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>2906</v>
       </c>
@@ -74977,7 +74971,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1315" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
         <v>2908</v>
       </c>
@@ -75078,7 +75072,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1319" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
         <v>2917</v>
       </c>
@@ -75101,7 +75095,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1320" spans="1:20" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
         <v>2919</v>
       </c>
@@ -75225,7 +75219,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
         <v>2930</v>
       </c>
@@ -75252,7 +75246,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
         <v>2933</v>
       </c>
@@ -75279,7 +75273,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1327" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
         <v>2935</v>
       </c>
@@ -75306,7 +75300,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
         <v>2937</v>
       </c>
@@ -75333,7 +75327,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
         <v>2939</v>
       </c>
@@ -75360,7 +75354,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
         <v>2941</v>
       </c>
@@ -75387,7 +75381,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
         <v>2943</v>
       </c>
@@ -75414,7 +75408,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>2945</v>
       </c>
@@ -75441,7 +75435,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
         <v>2947</v>
       </c>
@@ -75468,7 +75462,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
         <v>2949</v>
       </c>
@@ -75495,7 +75489,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>2951</v>
       </c>
@@ -75522,7 +75516,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
         <v>2953</v>
       </c>
@@ -75549,7 +75543,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
         <v>2955</v>
       </c>
@@ -75576,7 +75570,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
         <v>2957</v>
       </c>
@@ -75603,7 +75597,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
         <v>2959</v>
       </c>
@@ -75630,7 +75624,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
         <v>2961</v>
       </c>
@@ -75657,7 +75651,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
         <v>2963</v>
       </c>
@@ -75684,7 +75678,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
         <v>2965</v>
       </c>
@@ -75711,7 +75705,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
         <v>2967</v>
       </c>
@@ -75738,7 +75732,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
         <v>2969</v>
       </c>
@@ -75765,7 +75759,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
         <v>2971</v>
       </c>
@@ -75792,7 +75786,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
         <v>2973</v>
       </c>
@@ -75819,7 +75813,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
         <v>2975</v>
       </c>
@@ -75846,7 +75840,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
         <v>2977</v>
       </c>
@@ -75873,7 +75867,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
         <v>2979</v>
       </c>
@@ -75900,7 +75894,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
         <v>2981</v>
       </c>
@@ -75927,7 +75921,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
         <v>2983</v>
       </c>
@@ -75954,7 +75948,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
         <v>2985</v>
       </c>
@@ -75978,7 +75972,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
         <v>2987</v>
       </c>
@@ -76002,7 +75996,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
         <v>2989</v>
       </c>
@@ -76025,7 +76019,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
         <v>2992</v>
       </c>
@@ -76049,7 +76043,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
         <v>2994</v>
       </c>
@@ -76073,7 +76067,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
         <v>2996</v>
       </c>
@@ -76097,7 +76091,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
         <v>2998</v>
       </c>
@@ -76120,7 +76114,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
         <v>3002</v>
       </c>
@@ -76143,7 +76137,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
         <v>3004</v>
       </c>
@@ -76166,7 +76160,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
         <v>3006</v>
       </c>
@@ -76189,7 +76183,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
         <v>3008</v>
       </c>
@@ -76212,7 +76206,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
         <v>3010</v>
       </c>
@@ -76235,7 +76229,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
         <v>3012</v>
       </c>
@@ -76258,7 +76252,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
         <v>3014</v>
       </c>
@@ -76281,7 +76275,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
         <v>3016</v>
       </c>
@@ -76304,7 +76298,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
         <v>3018</v>
       </c>
@@ -76327,7 +76321,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
         <v>3020</v>
       </c>
@@ -76350,7 +76344,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
         <v>3022</v>
       </c>
@@ -76373,7 +76367,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
         <v>3024</v>
       </c>
@@ -76396,7 +76390,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
         <v>2999</v>
       </c>
@@ -76420,7 +76414,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
         <v>3026</v>
       </c>
@@ -76443,7 +76437,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
         <v>3028</v>
       </c>
@@ -76466,7 +76460,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
         <v>3029</v>
       </c>
@@ -76489,7 +76483,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
         <v>3031</v>
       </c>
@@ -76512,7 +76506,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
         <v>3032</v>
       </c>
@@ -76535,7 +76529,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
         <v>3033</v>
       </c>
@@ -76558,7 +76552,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
         <v>3034</v>
       </c>
@@ -76581,7 +76575,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
         <v>3035</v>
       </c>
@@ -76604,7 +76598,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
         <v>3036</v>
       </c>
@@ -76627,7 +76621,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
         <v>3037</v>
       </c>
@@ -76650,7 +76644,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
         <v>3038</v>
       </c>
@@ -76673,7 +76667,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
         <v>3039</v>
       </c>
@@ -76696,7 +76690,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
         <v>3040</v>
       </c>
@@ -76719,7 +76713,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
         <v>3041</v>
       </c>
@@ -76791,7 +76785,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
         <v>3046</v>
       </c>
@@ -76814,7 +76808,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1389" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
         <v>3049</v>
       </c>
@@ -76840,7 +76834,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1390" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
         <v>3052</v>
       </c>
@@ -76866,7 +76860,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1391" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
         <v>3054</v>
       </c>
@@ -76886,7 +76880,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1392" spans="1:20" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1392" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
         <v>3057</v>
       </c>
@@ -77030,7 +77024,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
         <v>3073</v>
       </c>
@@ -77050,7 +77044,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1399" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
         <v>3075</v>
       </c>
@@ -77122,7 +77116,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1402" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>3084</v>
       </c>
@@ -77143,7 +77137,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="1403" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>3087</v>
       </c>
@@ -77166,7 +77160,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1404" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>3089</v>
       </c>
@@ -77186,7 +77180,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1405" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>3091</v>
       </c>
@@ -77235,7 +77229,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1407" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>3099</v>
       </c>

--- a/Codebook for Error Check.xlsx
+++ b/Codebook for Error Check.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -39785,7 +39786,7 @@
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Codebook for Error Check.xlsx
+++ b/Codebook for Error Check.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Redcap\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1A661-8A5D-44BE-A064-A16428B26F4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13830" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DHCPNDH1_DataDictionary_2019-08" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,20 @@
     <sheet name="Variables" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21070" uniqueCount="3114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21049" uniqueCount="3114">
   <si>
     <t>Variable / Field Name</t>
   </si>
@@ -9403,7 +9412,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -10668,8 +10677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:R1407" totalsRowShown="0">
-  <autoFilter ref="A1:R1407">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:R1407" totalsRowShown="0">
+  <autoFilter ref="A1:R1407" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="scan_nursing_baby_info_today"/>
@@ -10677,32 +10686,32 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" name="Variable / Field Name"/>
-    <tableColumn id="2" name="Form Name"/>
-    <tableColumn id="3" name="Section Header"/>
-    <tableColumn id="4" name="Field Type"/>
-    <tableColumn id="5" name="Field Label"/>
-    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels"/>
-    <tableColumn id="7" name="Field Note"/>
-    <tableColumn id="8" name="Text Validation Type OR Show Slider Number"/>
-    <tableColumn id="9" name="Text Validation Min"/>
-    <tableColumn id="10" name="Text Validation Max"/>
-    <tableColumn id="11" name="Identifier?"/>
-    <tableColumn id="12" name="Branching Logic (Show field only if...)"/>
-    <tableColumn id="13" name="Required Field?"/>
-    <tableColumn id="14" name="Custom Alignment"/>
-    <tableColumn id="15" name="Question Number (surveys only)"/>
-    <tableColumn id="16" name="Matrix Group Name"/>
-    <tableColumn id="17" name="Matrix Ranking?"/>
-    <tableColumn id="18" name="Field Annotation"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Variable / Field Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Form Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Section Header"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Field Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Field Label"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Choices, Calculations, OR Slider Labels"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Field Note"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Text Validation Type OR Show Slider Number"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Text Validation Min"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Text Validation Max"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Identifier?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Branching Logic (Show field only if...)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Required Field?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Custom Alignment"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Question Number (surveys only)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Matrix Group Name"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Matrix Ranking?"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Field Annotation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:T1407">
-  <autoFilter ref="A1:T1407">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table24" displayName="Table24" ref="A1:T1404">
+  <autoFilter ref="A1:T1404" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="19">
       <filters>
         <filter val="No"/>
@@ -10710,54 +10719,54 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="20">
-    <tableColumn id="1" name="Variable / Field Name"/>
-    <tableColumn id="2" name="Form Name"/>
-    <tableColumn id="3" name="Section Header"/>
-    <tableColumn id="4" name="Field Type"/>
-    <tableColumn id="5" name="Field Label"/>
-    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels" totalsRowDxfId="26"/>
-    <tableColumn id="7" name="Field Note"/>
-    <tableColumn id="8" name="Text Validation Type OR Show Slider Number"/>
-    <tableColumn id="9" name="Text Validation Min"/>
-    <tableColumn id="10" name="Text Validation Max"/>
-    <tableColumn id="11" name="Identifier?"/>
-    <tableColumn id="12" name="Branching Logic (Show field only if...)"/>
-    <tableColumn id="13" name="Required Field?"/>
-    <tableColumn id="14" name="Custom Alignment"/>
-    <tableColumn id="15" name="Question Number (surveys only)"/>
-    <tableColumn id="16" name="Matrix Group Name"/>
-    <tableColumn id="17" name="Matrix Ranking?"/>
-    <tableColumn id="18" name="Field Annotation" totalsRowFunction="count"/>
-    <tableColumn id="19" name="Black_List" dataDxfId="25"/>
-    <tableColumn id="22" name="Ignore" totalsRowFunction="count" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Variable / Field Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Form Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Section Header"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Field Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Field Label"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Choices, Calculations, OR Slider Labels" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Field Note"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Text Validation Type OR Show Slider Number"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Text Validation Min"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Text Validation Max"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Identifier?"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Branching Logic (Show field only if...)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Required Field?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Custom Alignment"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Question Number (surveys only)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Matrix Group Name"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Matrix Ranking?"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Field Annotation" totalsRowFunction="count"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Black_List" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Ignore" totalsRowFunction="count" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:S197" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:S197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:S197" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:S197" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="Variable / Field Name" dataDxfId="18"/>
-    <tableColumn id="2" name="Form Name" dataDxfId="17"/>
-    <tableColumn id="3" name="Section Header" dataDxfId="16"/>
-    <tableColumn id="4" name="Field Type" dataDxfId="15"/>
-    <tableColumn id="5" name="Field Label" dataDxfId="14"/>
-    <tableColumn id="6" name="Choices, Calculations, OR Slider Labels" dataDxfId="13"/>
-    <tableColumn id="7" name="Field Note" dataDxfId="12"/>
-    <tableColumn id="8" name="Text Validation Type OR Show Slider Number" dataDxfId="11"/>
-    <tableColumn id="9" name="Text Validation Min" dataDxfId="10"/>
-    <tableColumn id="10" name="Text Validation Max" dataDxfId="9"/>
-    <tableColumn id="11" name="Identifier?" dataDxfId="8"/>
-    <tableColumn id="12" name="Branching Logic (Show field only if...)" dataDxfId="7"/>
-    <tableColumn id="13" name="Required Field?" dataDxfId="6"/>
-    <tableColumn id="14" name="Custom Alignment" dataDxfId="5"/>
-    <tableColumn id="15" name="Question Number (surveys only)" dataDxfId="4"/>
-    <tableColumn id="16" name="Matrix Group Name" dataDxfId="3"/>
-    <tableColumn id="17" name="Matrix Ranking?" dataDxfId="2"/>
-    <tableColumn id="18" name="Field Annotation" dataDxfId="1"/>
-    <tableColumn id="19" name="Black_List" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Variable / Field Name" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Form Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Section Header" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Field Type" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Field Label" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Choices, Calculations, OR Slider Labels" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Field Note" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Text Validation Type OR Show Slider Number" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Text Validation Min" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Text Validation Max" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Identifier?" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Branching Logic (Show field only if...)" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Required Field?" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Custom Alignment" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Question Number (surveys only)" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Matrix Group Name" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Matrix Ranking?" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Field Annotation" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Black_List" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11025,7 +11034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39752,14 +39761,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1407"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T1404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B1405" sqref="B1405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77186,75 +77195,6 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="1405" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1405" t="s">
-        <v>3091</v>
-      </c>
-      <c r="B1405" t="s">
-        <v>3092</v>
-      </c>
-      <c r="D1405" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1405" t="s">
-        <v>3093</v>
-      </c>
-      <c r="F1405" s="1" t="s">
-        <v>3094</v>
-      </c>
-      <c r="S1405" t="s">
-        <v>3112</v>
-      </c>
-      <c r="T1405" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1406" t="s">
-        <v>3095</v>
-      </c>
-      <c r="B1406" t="s">
-        <v>3092</v>
-      </c>
-      <c r="D1406" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1406" t="s">
-        <v>3096</v>
-      </c>
-      <c r="F1406" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="L1406" t="s">
-        <v>3098</v>
-      </c>
-      <c r="S1406" t="s">
-        <v>3112</v>
-      </c>
-      <c r="T1406" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1407" t="s">
-        <v>3099</v>
-      </c>
-      <c r="B1407" t="s">
-        <v>3092</v>
-      </c>
-      <c r="D1407" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1407" t="s">
-        <v>3100</v>
-      </c>
-      <c r="S1407" t="s">
-        <v>3112</v>
-      </c>
-      <c r="T1407" t="s">
-        <v>3111</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -77264,7 +77204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S197"/>
   <sheetViews>
     <sheetView topLeftCell="A174" workbookViewId="0">
@@ -83950,7 +83890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="F4:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
